--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2495027.688824121</v>
+        <v>-2495676.048050926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11517486.19315933</v>
+        <v>11517486.19315931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="D11" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>19.47552824536783</v>
+        <v>19.47552824536787</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099202</v>
+        <v>7.105504016099118</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399029</v>
+        <v>37.19202471399021</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="X11" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.8069008495699</v>
+        <v>11.80690084956982</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993855</v>
+        <v>18.68115031993847</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143289</v>
+        <v>37.5755463314328</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855288</v>
+        <v>6.556120159855206</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779519</v>
+        <v>13.0070136877951</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452332</v>
+        <v>72.18913543452324</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434129</v>
+        <v>38.0182064943412</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955044</v>
+        <v>11.59021855955035</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608074</v>
+        <v>4.465216522607989</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="F14" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="H14" t="n">
-        <v>72.40356150710429</v>
+        <v>56.6675529593582</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105504016099104</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>63.77305697545742</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.8069008495699</v>
+        <v>11.80690084956982</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993855</v>
+        <v>18.68115031993847</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143289</v>
+        <v>37.5755463314328</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855288</v>
+        <v>6.556120159855206</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779519</v>
+        <v>13.0070136877951</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452332</v>
+        <v>72.18913543452324</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434129</v>
+        <v>38.0182064943412</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955044</v>
+        <v>11.59021855955035</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608074</v>
+        <v>4.465216522607989</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>34.88964134293053</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045715</v>
+        <v>17.42869145045751</v>
       </c>
       <c r="D17" t="n">
         <v>6.838841300132913</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.396768396862967</v>
+        <v>1.39676839686201</v>
       </c>
       <c r="X17" t="n">
         <v>21.88690035791899</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C26" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F26" t="n">
         <v>185.6511048961255</v>
@@ -2570,7 +2570,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789111</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V26" t="n">
         <v>106.527317624549</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.701396833470715</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383936</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W27" t="n">
-        <v>30.4700423153337</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695969</v>
       </c>
       <c r="U28" t="n">
-        <v>65.08363141842413</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V28" t="n">
-        <v>30.9127024782421</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W28" t="n">
-        <v>65.2980574910051</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451247</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C29" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D29" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F29" t="n">
         <v>185.6511048961255</v>
@@ -2807,7 +2807,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.08652069789107</v>
+        <v>30.08652069789111</v>
       </c>
       <c r="V29" t="n">
         <v>106.527317624549</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V30" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W30" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695968</v>
+        <v>5.901509671695997</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V31" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W31" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X31" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695997</v>
       </c>
       <c r="U34" t="n">
         <v>65.08363141842413</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0935890264971</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C35" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0427889836995</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E35" t="n">
-        <v>137.2901174352783</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F35" t="n">
         <v>162.235793104728</v>
@@ -3281,7 +3281,7 @@
         <v>170.2350928236581</v>
       </c>
       <c r="H35" t="n">
-        <v>90.45752060070183</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493575</v>
+        <v>6.671208906493607</v>
       </c>
       <c r="V35" t="n">
-        <v>83.11200583315147</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W35" t="n">
         <v>104.6007160804296</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.054730523936172</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.66831962702661</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V37" t="n">
-        <v>7.497390686844568</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W37" t="n">
-        <v>41.88274569960757</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0935890264971</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C38" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0427889836995</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E38" t="n">
-        <v>137.2901174352783</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F38" t="n">
         <v>162.235793104728</v>
@@ -3518,7 +3518,7 @@
         <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070183</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493579</v>
+        <v>6.671208906493604</v>
       </c>
       <c r="V38" t="n">
-        <v>83.11200583315147</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W38" t="n">
         <v>104.6007160804296</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.054730523936172</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702661</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844568</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W40" t="n">
-        <v>41.88274569960757</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>162.2357931047281</v>
       </c>
       <c r="G41" t="n">
-        <v>170.2350928236581</v>
+        <v>170.2350928236582</v>
       </c>
       <c r="H41" t="n">
-        <v>90.45752060070188</v>
+        <v>90.45752060070191</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493636</v>
+        <v>6.671208906493664</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11200583315153</v>
+        <v>83.11200583315156</v>
       </c>
       <c r="W41" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804297</v>
       </c>
       <c r="X41" t="n">
         <v>125.0908480414857</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.054730523936229</v>
+        <v>7.054730523936257</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702666</v>
+        <v>41.66831962702669</v>
       </c>
       <c r="V43" t="n">
-        <v>7.497390686844625</v>
+        <v>7.497390686844653</v>
       </c>
       <c r="W43" t="n">
-        <v>41.88274569960763</v>
+        <v>41.88274569960765</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>162.2357931047281</v>
       </c>
       <c r="G44" t="n">
-        <v>170.2350928236581</v>
+        <v>170.2350928236582</v>
       </c>
       <c r="H44" t="n">
-        <v>90.45752060070188</v>
+        <v>90.45752060070191</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493636</v>
+        <v>6.671208906493664</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11200583315153</v>
+        <v>83.11200583315156</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804297</v>
       </c>
       <c r="X44" t="n">
         <v>125.0908480414857</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.054730523936229</v>
+        <v>7.054730523936257</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702666</v>
+        <v>41.66831962702669</v>
       </c>
       <c r="V46" t="n">
-        <v>7.497390686844625</v>
+        <v>7.497390686844653</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88274569960763</v>
+        <v>41.88274569960765</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5018,67 +5018,67 @@
         <v>171.7343568999385</v>
       </c>
       <c r="C11" t="n">
+        <v>98.59944628670175</v>
+      </c>
+      <c r="D11" t="n">
+        <v>98.59944628670175</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.46453567346518</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.46453567346518</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.46453567346518</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.792284920568336</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.7116585661117</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25.7116585661117</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73.62316182403673</v>
+      </c>
+      <c r="L11" t="n">
+        <v>118.9638683880345</v>
+      </c>
+      <c r="M11" t="n">
+        <v>118.9638683880345</v>
+      </c>
+      <c r="N11" t="n">
+        <v>118.9638683880345</v>
+      </c>
+      <c r="O11" t="n">
+        <v>168.3067123775252</v>
+      </c>
+      <c r="P11" t="n">
+        <v>212.2092056004759</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>249.7968134734044</v>
+      </c>
+      <c r="R11" t="n">
+        <v>274.9240679802541</v>
+      </c>
+      <c r="S11" t="n">
+        <v>289.6142460284168</v>
+      </c>
+      <c r="T11" t="n">
+        <v>282.4369692444783</v>
+      </c>
+      <c r="U11" t="n">
+        <v>244.869267513175</v>
+      </c>
+      <c r="V11" t="n">
+        <v>244.869267513175</v>
+      </c>
+      <c r="W11" t="n">
         <v>171.7343568999385</v>
-      </c>
-      <c r="D11" t="n">
-        <v>98.59944628670186</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25.46453567346514</v>
-      </c>
-      <c r="F11" t="n">
-        <v>25.46453567346514</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25.46453567346514</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.792284920568343</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25.71165856611164</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25.71165856611164</v>
-      </c>
-      <c r="K11" t="n">
-        <v>73.62316182403663</v>
-      </c>
-      <c r="L11" t="n">
-        <v>73.62316182403663</v>
-      </c>
-      <c r="M11" t="n">
-        <v>131.8544754279301</v>
-      </c>
-      <c r="N11" t="n">
-        <v>192.21181136428</v>
-      </c>
-      <c r="O11" t="n">
-        <v>192.21181136428</v>
-      </c>
-      <c r="P11" t="n">
-        <v>192.21181136428</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>229.7994192372084</v>
-      </c>
-      <c r="R11" t="n">
-        <v>274.9240679802545</v>
-      </c>
-      <c r="S11" t="n">
-        <v>289.6142460284171</v>
-      </c>
-      <c r="T11" t="n">
-        <v>282.4369692444785</v>
-      </c>
-      <c r="U11" t="n">
-        <v>244.8692675131752</v>
-      </c>
-      <c r="V11" t="n">
-        <v>244.8692675131752</v>
-      </c>
-      <c r="W11" t="n">
-        <v>244.8692675131752</v>
       </c>
       <c r="X11" t="n">
         <v>171.7343568999385</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="D12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="E12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="F12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="G12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="J12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="K12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="L12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="M12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="N12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="O12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="P12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.54339350737779</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="R12" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737752</v>
       </c>
       <c r="S12" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737752</v>
       </c>
       <c r="T12" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737752</v>
       </c>
       <c r="U12" t="n">
-        <v>62.61723103306475</v>
+        <v>62.61723103306457</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504601</v>
+        <v>43.74738222504592</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="X12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.73686700164227</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C13" t="n">
-        <v>86.14075657519257</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="D13" t="n">
-        <v>86.14075657519257</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="E13" t="n">
-        <v>153.1493760162809</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="F13" t="n">
-        <v>153.1493760162809</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="G13" t="n">
-        <v>173.1652926985903</v>
+        <v>51.64925404541345</v>
       </c>
       <c r="H13" t="n">
-        <v>226.2260953910511</v>
+        <v>51.64925404541345</v>
       </c>
       <c r="I13" t="n">
-        <v>226.2260953910511</v>
+        <v>115.439216546515</v>
       </c>
       <c r="J13" t="n">
-        <v>226.2260953910511</v>
+        <v>115.439216546515</v>
       </c>
       <c r="K13" t="n">
-        <v>226.2260953910511</v>
+        <v>115.439216546515</v>
       </c>
       <c r="L13" t="n">
-        <v>226.2260953910511</v>
+        <v>154.5465694990173</v>
       </c>
       <c r="M13" t="n">
-        <v>226.2260953910511</v>
+        <v>154.5465694990173</v>
       </c>
       <c r="N13" t="n">
-        <v>226.2260953910511</v>
+        <v>154.5465694990173</v>
       </c>
       <c r="O13" t="n">
-        <v>226.2260953910511</v>
+        <v>154.5465694990173</v>
       </c>
       <c r="P13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910504</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910504</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910504</v>
       </c>
       <c r="S13" t="n">
-        <v>219.6037517952377</v>
+        <v>219.6037517952371</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307981</v>
+        <v>206.4653541307976</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5470355100674</v>
+        <v>133.5470355100671</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790451</v>
+        <v>95.14480672790424</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466785</v>
+        <v>22.00989611466767</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037448</v>
+        <v>10.30260464037439</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.1970167602783</v>
+        <v>209.3020586312417</v>
       </c>
       <c r="C14" t="n">
-        <v>225.1970167602783</v>
+        <v>209.3020586312417</v>
       </c>
       <c r="D14" t="n">
-        <v>225.1970167602783</v>
+        <v>209.3020586312417</v>
       </c>
       <c r="E14" t="n">
-        <v>225.1970167602783</v>
+        <v>136.1671480180051</v>
       </c>
       <c r="F14" t="n">
-        <v>152.0621061470417</v>
+        <v>136.1671480180051</v>
       </c>
       <c r="G14" t="n">
-        <v>78.927195533805</v>
+        <v>63.03223740476854</v>
       </c>
       <c r="H14" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I14" t="n">
-        <v>5.792284920568343</v>
+        <v>25.7116585661117</v>
       </c>
       <c r="J14" t="n">
-        <v>74.44670462156053</v>
+        <v>94.36607826710394</v>
       </c>
       <c r="K14" t="n">
-        <v>122.3582078794855</v>
+        <v>94.36607826710394</v>
       </c>
       <c r="L14" t="n">
-        <v>167.6989144434833</v>
+        <v>139.7067848311017</v>
       </c>
       <c r="M14" t="n">
-        <v>167.6989144434833</v>
+        <v>139.7067848311017</v>
       </c>
       <c r="N14" t="n">
-        <v>194.3251548283512</v>
+        <v>139.7067848311017</v>
       </c>
       <c r="O14" t="n">
-        <v>249.7968134734049</v>
+        <v>205.8943202504537</v>
       </c>
       <c r="P14" t="n">
-        <v>249.7968134734049</v>
+        <v>249.7968134734044</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.7968134734049</v>
+        <v>249.7968134734044</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802545</v>
+        <v>274.9240679802541</v>
       </c>
       <c r="S14" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284168</v>
       </c>
       <c r="T14" t="n">
-        <v>289.6142460284171</v>
+        <v>282.4369692444783</v>
       </c>
       <c r="U14" t="n">
-        <v>289.6142460284171</v>
+        <v>282.4369692444783</v>
       </c>
       <c r="V14" t="n">
-        <v>289.6142460284171</v>
+        <v>282.4369692444783</v>
       </c>
       <c r="W14" t="n">
-        <v>289.6142460284171</v>
+        <v>282.4369692444783</v>
       </c>
       <c r="X14" t="n">
-        <v>225.1970167602783</v>
+        <v>282.4369692444783</v>
       </c>
       <c r="Y14" t="n">
-        <v>225.1970167602783</v>
+        <v>209.3020586312417</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="D15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="E15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="F15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="G15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="J15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="K15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="L15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="M15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="N15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="O15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="P15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="R15" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737752</v>
       </c>
       <c r="S15" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737752</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737752</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306475</v>
+        <v>62.61723103306457</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504601</v>
+        <v>43.74738222504592</v>
       </c>
       <c r="W15" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="X15" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.14465856222888</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C16" t="n">
-        <v>5.792284920568343</v>
+        <v>52.19617449411871</v>
       </c>
       <c r="D16" t="n">
-        <v>70.64120909372997</v>
+        <v>52.19617449411871</v>
       </c>
       <c r="E16" t="n">
-        <v>70.64120909372997</v>
+        <v>52.19617449411871</v>
       </c>
       <c r="F16" t="n">
-        <v>70.64120909372997</v>
+        <v>52.19617449411871</v>
       </c>
       <c r="G16" t="n">
-        <v>116.498178218575</v>
+        <v>52.19617449411871</v>
       </c>
       <c r="H16" t="n">
-        <v>116.498178218575</v>
+        <v>52.19617449411871</v>
       </c>
       <c r="I16" t="n">
-        <v>116.498178218575</v>
+        <v>52.19617449411871</v>
       </c>
       <c r="J16" t="n">
-        <v>116.498178218575</v>
+        <v>123.8757003861519</v>
       </c>
       <c r="K16" t="n">
-        <v>116.498178218575</v>
+        <v>123.8757003861519</v>
       </c>
       <c r="L16" t="n">
-        <v>116.498178218575</v>
+        <v>154.5465694990173</v>
       </c>
       <c r="M16" t="n">
-        <v>116.498178218575</v>
+        <v>154.5465694990173</v>
       </c>
       <c r="N16" t="n">
-        <v>116.498178218575</v>
+        <v>154.5465694990173</v>
       </c>
       <c r="O16" t="n">
-        <v>116.498178218575</v>
+        <v>226.2260953910504</v>
       </c>
       <c r="P16" t="n">
-        <v>116.498178218575</v>
+        <v>226.2260953910504</v>
       </c>
       <c r="Q16" t="n">
-        <v>181.2343817905635</v>
+        <v>226.2260953910504</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910504</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952377</v>
+        <v>219.6037517952371</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307981</v>
+        <v>206.4653541307976</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100674</v>
+        <v>133.5470355100671</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790451</v>
+        <v>95.14480672790424</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466785</v>
+        <v>22.00989611466767</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037448</v>
+        <v>10.30260464037439</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635526</v>
+        <v>192.0717728635534</v>
       </c>
       <c r="C17" t="n">
         <v>174.4670340247074</v>
@@ -5501,64 +5501,64 @@
         <v>133.1286390228441</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480215</v>
+        <v>73.50051233480214</v>
       </c>
       <c r="G17" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H17" t="n">
-        <v>18.41124773260448</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I17" t="n">
-        <v>90.09077362463772</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="J17" t="n">
-        <v>90.09077362463772</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="K17" t="n">
-        <v>90.09077362463772</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="L17" t="n">
-        <v>90.09077362463772</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="M17" t="n">
-        <v>90.09077362463772</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="N17" t="n">
-        <v>90.09077362463772</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="O17" t="n">
-        <v>90.09077362463772</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="P17" t="n">
-        <v>90.09077362463772</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="Q17" t="n">
-        <v>161.7702995166709</v>
+        <v>149.1513367046346</v>
       </c>
       <c r="R17" t="n">
-        <v>217.9347201363839</v>
+        <v>220.8308625966678</v>
       </c>
       <c r="S17" t="n">
-        <v>289.6142460284171</v>
+        <v>220.8308625966678</v>
       </c>
       <c r="T17" t="n">
-        <v>289.6142460284171</v>
+        <v>220.8308625966678</v>
       </c>
       <c r="U17" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284168</v>
       </c>
       <c r="V17" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284168</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598689</v>
+        <v>288.2033688598697</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0953887003548</v>
+        <v>266.0953887003556</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261087</v>
+        <v>227.3138348261095</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="D18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="E18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="G18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="J18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="K18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="M18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="N18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="O18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="P18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="R18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="S18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="T18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="U18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="V18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="W18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="X18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="D19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="E19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="G19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="J19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="K19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="L19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="M19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="N19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="O19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="P19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="R19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="S19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="T19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="U19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="V19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="W19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="X19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.071772863553</v>
+        <v>192.0717728635525</v>
       </c>
       <c r="C20" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247064</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195223</v>
+        <v>167.5591135195218</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228438</v>
+        <v>133.1286390228433</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480218</v>
+        <v>73.50051233480217</v>
       </c>
       <c r="G20" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H20" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I20" t="n">
-        <v>54.68464592040644</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="J20" t="n">
-        <v>54.68464592040644</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="K20" t="n">
-        <v>54.68464592040644</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="L20" t="n">
-        <v>54.68464592040644</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="M20" t="n">
-        <v>54.68464592040644</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="N20" t="n">
-        <v>54.68464592040644</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="O20" t="n">
-        <v>54.68464592040644</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="P20" t="n">
-        <v>126.3641718124397</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="Q20" t="n">
-        <v>126.3641718124397</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="R20" t="n">
-        <v>126.3641718124397</v>
+        <v>77.47181081260149</v>
       </c>
       <c r="S20" t="n">
-        <v>198.0436977044729</v>
+        <v>146.2551942443505</v>
       </c>
       <c r="T20" t="n">
-        <v>198.0436977044729</v>
+        <v>217.9347201363836</v>
       </c>
       <c r="U20" t="n">
-        <v>269.7232235965062</v>
+        <v>289.6142460284168</v>
       </c>
       <c r="V20" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284168</v>
       </c>
       <c r="W20" t="n">
-        <v>288.203368859869</v>
+        <v>288.2033688598685</v>
       </c>
       <c r="X20" t="n">
-        <v>266.095388700355</v>
+        <v>266.0953887003545</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.313834826109</v>
+        <v>227.3138348261086</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="D21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="E21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="F21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="G21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="J21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="K21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="L21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="M21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="N21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="O21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="P21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="R21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="S21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="T21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="U21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="V21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="W21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="X21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="C22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="D22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="E22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="F22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="G22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="H22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="I22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="J22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="K22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="L22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="M22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="N22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="O22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="P22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="R22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="S22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="T22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="U22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="V22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="W22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="X22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568336</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635527</v>
+        <v>192.0717728635532</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247067</v>
+        <v>174.4670340247072</v>
       </c>
       <c r="D23" t="n">
-        <v>167.559113519522</v>
+        <v>167.5591135195224</v>
       </c>
       <c r="E23" t="n">
         <v>133.1286390228438</v>
@@ -5984,55 +5984,55 @@
         <v>5.792284920568354</v>
       </c>
       <c r="I23" t="n">
-        <v>74.57566835231756</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="J23" t="n">
-        <v>146.2551942443509</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="K23" t="n">
-        <v>146.2551942443509</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="L23" t="n">
-        <v>146.2551942443509</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="M23" t="n">
-        <v>217.9347201363843</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="N23" t="n">
-        <v>217.9347201363843</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="O23" t="n">
-        <v>289.6142460284177</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="P23" t="n">
-        <v>289.6142460284177</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="Q23" t="n">
-        <v>289.6142460284177</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="R23" t="n">
-        <v>289.6142460284177</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="S23" t="n">
-        <v>289.6142460284177</v>
+        <v>126.36417181244</v>
       </c>
       <c r="T23" t="n">
-        <v>289.6142460284177</v>
+        <v>198.0436977044733</v>
       </c>
       <c r="U23" t="n">
-        <v>289.6142460284177</v>
+        <v>269.7232235965067</v>
       </c>
       <c r="V23" t="n">
         <v>289.6142460284177</v>
       </c>
       <c r="W23" t="n">
-        <v>288.203368859869</v>
+        <v>288.2033688598693</v>
       </c>
       <c r="X23" t="n">
-        <v>266.095388700355</v>
+        <v>266.0953887003551</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261087</v>
+        <v>227.3138348261091</v>
       </c>
     </row>
     <row r="24">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339781</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012286</v>
+        <v>829.7381874012291</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021407</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E26" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115594</v>
       </c>
       <c r="F26" t="n">
-        <v>345.0769400296139</v>
+        <v>345.0769400296144</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
@@ -6221,25 +6221,25 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.40123032063605</v>
+        <v>61.40123032063606</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0900989975664</v>
+        <v>304.4957480179195</v>
       </c>
       <c r="K26" t="n">
-        <v>192.0360512314296</v>
+        <v>640.8719161206631</v>
       </c>
       <c r="L26" t="n">
-        <v>555.3597156619808</v>
+        <v>693.247071660599</v>
       </c>
       <c r="M26" t="n">
-        <v>555.3597156619808</v>
+        <v>1018.874558385764</v>
       </c>
       <c r="N26" t="n">
-        <v>981.6463859390184</v>
+        <v>1300.227107028786</v>
       </c>
       <c r="O26" t="n">
-        <v>1044.15249356001</v>
+        <v>1362.733214649778</v>
       </c>
       <c r="P26" t="n">
         <v>1413.670156848667</v>
@@ -6327,19 +6327,19 @@
         <v>34.44740769915455</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377381</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969365</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W27" t="n">
         <v>34.44740769915455</v>
@@ -6367,61 +6367,61 @@
         <v>34.44740769915455</v>
       </c>
       <c r="E28" t="n">
-        <v>108.4904761161811</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F28" t="n">
-        <v>108.4904761161811</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G28" t="n">
-        <v>161.3818942169643</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H28" t="n">
-        <v>161.3818942169643</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3818942169643</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J28" t="n">
-        <v>161.3818942169643</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K28" t="n">
-        <v>161.3859682237</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L28" t="n">
-        <v>161.3859682237</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M28" t="n">
-        <v>161.3859682237</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N28" t="n">
-        <v>161.3859682237</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O28" t="n">
-        <v>161.3859682237</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P28" t="n">
-        <v>161.3859682237</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="Q28" t="n">
-        <v>161.3859682237</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="R28" t="n">
-        <v>207.3182809166434</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538238</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1600082170318</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V28" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950935</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X28" t="n">
         <v>34.44740769915455</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339772</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012284</v>
+        <v>829.7381874012281</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9320250021406</v>
+        <v>694.9320250021401</v>
       </c>
       <c r="E29" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115585</v>
       </c>
       <c r="F29" t="n">
-        <v>345.076940029614</v>
+        <v>345.0769400296135</v>
       </c>
       <c r="G29" t="n">
         <v>149.4704707214771</v>
@@ -6458,28 +6458,28 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063607</v>
+        <v>61.40123032063603</v>
       </c>
       <c r="J29" t="n">
-        <v>61.40123032063607</v>
+        <v>304.4957480179194</v>
       </c>
       <c r="K29" t="n">
-        <v>116.3471825544993</v>
+        <v>359.4417002517825</v>
       </c>
       <c r="L29" t="n">
-        <v>116.3471825544993</v>
+        <v>411.8168557917185</v>
       </c>
       <c r="M29" t="n">
-        <v>542.6338528315368</v>
+        <v>706.7364717350687</v>
       </c>
       <c r="N29" t="n">
-        <v>552.8065676087199</v>
+        <v>1126.20118630066</v>
       </c>
       <c r="O29" t="n">
-        <v>979.0932378857575</v>
+        <v>1552.487856577698</v>
       </c>
       <c r="P29" t="n">
-        <v>1348.610901174414</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="Q29" t="n">
         <v>1603.424798776587</v>
@@ -6506,7 +6506,7 @@
         <v>1305.061267758586</v>
       </c>
       <c r="Y29" t="n">
-        <v>1138.381471990437</v>
+        <v>1138.381471990436</v>
       </c>
     </row>
     <row r="30">
@@ -6531,52 +6531,52 @@
         <v>34.44740769915455</v>
       </c>
       <c r="G30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="H30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="I30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="J30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="K30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="L30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="M30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U30" t="n">
-        <v>76.91780024377375</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V30" t="n">
-        <v>65.22522821969362</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W30" t="n">
         <v>34.44740769915455</v>
@@ -6607,58 +6607,58 @@
         <v>34.44740769915455</v>
       </c>
       <c r="F31" t="n">
-        <v>48.26493526452971</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G31" t="n">
-        <v>101.156353365313</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H31" t="n">
-        <v>101.156353365313</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I31" t="n">
-        <v>101.156353365313</v>
+        <v>67.85647445581705</v>
       </c>
       <c r="J31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="K31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="L31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="M31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="N31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="O31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T31" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U31" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V31" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W31" t="n">
-        <v>38.97742238950932</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X31" t="n">
         <v>34.44740769915455</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339772</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012286</v>
+        <v>829.7381874012281</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021407</v>
+        <v>694.9320250021401</v>
       </c>
       <c r="E32" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115585</v>
       </c>
       <c r="F32" t="n">
-        <v>345.076940029614</v>
+        <v>345.0769400296135</v>
       </c>
       <c r="G32" t="n">
         <v>149.4704707214771</v>
@@ -6695,28 +6695,28 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>61.40123032063605</v>
+        <v>61.40123032063603</v>
       </c>
       <c r="J32" t="n">
-        <v>304.4957480179195</v>
+        <v>304.4957480179194</v>
       </c>
       <c r="K32" t="n">
-        <v>359.4417002517827</v>
+        <v>566.6192488440431</v>
       </c>
       <c r="L32" t="n">
-        <v>359.4417002517827</v>
+        <v>992.9059191210807</v>
       </c>
       <c r="M32" t="n">
-        <v>424.7074628316144</v>
+        <v>1058.171681700912</v>
       </c>
       <c r="N32" t="n">
-        <v>807.6204652108923</v>
+        <v>1125.5634666132</v>
       </c>
       <c r="O32" t="n">
-        <v>1233.90713548793</v>
+        <v>1297.673958975526</v>
       </c>
       <c r="P32" t="n">
-        <v>1603.424798776587</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="Q32" t="n">
         <v>1603.424798776587</v>
@@ -6743,7 +6743,7 @@
         <v>1305.061267758586</v>
       </c>
       <c r="Y32" t="n">
-        <v>1138.381471990437</v>
+        <v>1138.381471990436</v>
       </c>
     </row>
     <row r="33">
@@ -6798,10 +6798,10 @@
         <v>34.44740769915455</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="R33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="S33" t="n">
         <v>81.66668593414828</v>
@@ -6856,28 +6856,28 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J34" t="n">
-        <v>122.9465851015694</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K34" t="n">
-        <v>122.9465851015694</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L34" t="n">
-        <v>122.9465851015694</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M34" t="n">
-        <v>122.9465851015694</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N34" t="n">
-        <v>122.9465851015694</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O34" t="n">
-        <v>122.9465851015694</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9465851015694</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343248</v>
+        <v>184.0525223258839</v>
       </c>
       <c r="R34" t="n">
         <v>207.8621709343248</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594846</v>
+        <v>827.5379026594851</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190565</v>
+        <v>705.6867520190566</v>
       </c>
       <c r="D35" t="n">
         <v>594.5324197122893</v>
@@ -6923,7 +6923,7 @@
         <v>455.8555334140283</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9809949244041</v>
+        <v>291.980994924404</v>
       </c>
       <c r="G35" t="n">
         <v>120.0263557085881</v>
@@ -6932,31 +6932,31 @@
         <v>28.65512277858621</v>
       </c>
       <c r="I35" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355122</v>
       </c>
       <c r="J35" t="n">
-        <v>177.6601314239652</v>
+        <v>177.6601314239651</v>
       </c>
       <c r="K35" t="n">
-        <v>255.7872423313119</v>
+        <v>255.7872423313117</v>
       </c>
       <c r="L35" t="n">
-        <v>331.3435565447314</v>
+        <v>610.3943867163161</v>
       </c>
       <c r="M35" t="n">
-        <v>419.7904777980467</v>
+        <v>965.0015311013206</v>
       </c>
       <c r="N35" t="n">
-        <v>525.977609772583</v>
+        <v>1055.574474687092</v>
       </c>
       <c r="O35" t="n">
-        <v>611.6648760670585</v>
+        <v>1167.405016007249</v>
       </c>
       <c r="P35" t="n">
-        <v>966.2720204520629</v>
+        <v>1241.523116879621</v>
       </c>
       <c r="Q35" t="n">
-        <v>1244.267076727719</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R35" t="n">
         <v>1364.669194558243</v>
@@ -6968,19 +6968,19 @@
         <v>1432.756138929311</v>
       </c>
       <c r="U35" t="n">
-        <v>1426.017544074266</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V35" t="n">
         <v>1342.066023030679</v>
       </c>
       <c r="W35" t="n">
-        <v>1236.408734060548</v>
+        <v>1236.408734060549</v>
       </c>
       <c r="X35" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236231</v>
+        <v>967.0263764236234</v>
       </c>
     </row>
     <row r="36">
@@ -6993,64 +6993,64 @@
         <v>28.65512277858621</v>
       </c>
       <c r="C36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="D36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="E36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="F36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="G36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="H36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="I36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="J36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="K36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="L36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="M36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="N36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="O36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="P36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="R36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="T36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="U36" t="n">
-        <v>35.78111320680457</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="V36" t="n">
-        <v>35.78111320680457</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="W36" t="n">
         <v>28.65512277858621</v>
@@ -7087,49 +7087,49 @@
         <v>28.65512277858621</v>
       </c>
       <c r="H37" t="n">
-        <v>111.9315331204687</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I37" t="n">
-        <v>111.9315331204687</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J37" t="n">
-        <v>111.9315331204687</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T37" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U37" t="n">
-        <v>78.53404842146716</v>
+        <v>78.53404842146722</v>
       </c>
       <c r="V37" t="n">
-        <v>70.96092651556356</v>
+        <v>70.96092651556359</v>
       </c>
       <c r="W37" t="n">
         <v>28.65512277858621</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594856</v>
+        <v>827.5379026594857</v>
       </c>
       <c r="C38" t="n">
         <v>705.6867520190572</v>
       </c>
       <c r="D38" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122899</v>
       </c>
       <c r="E38" t="n">
-        <v>455.855533414029</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F38" t="n">
-        <v>291.9809949244047</v>
+        <v>291.9809949244046</v>
       </c>
       <c r="G38" t="n">
         <v>120.0263557085881</v>
@@ -7169,43 +7169,43 @@
         <v>28.65512277858623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355128</v>
+        <v>78.79010407355123</v>
       </c>
       <c r="J38" t="n">
-        <v>177.6601314239652</v>
+        <v>177.6601314239651</v>
       </c>
       <c r="K38" t="n">
-        <v>532.2672758089698</v>
+        <v>255.7872423313118</v>
       </c>
       <c r="L38" t="n">
-        <v>532.2672758089698</v>
+        <v>331.3435565447312</v>
       </c>
       <c r="M38" t="n">
-        <v>532.2672758089698</v>
+        <v>419.7904777980463</v>
       </c>
       <c r="N38" t="n">
-        <v>845.0378754938481</v>
+        <v>774.397622183051</v>
       </c>
       <c r="O38" t="n">
-        <v>845.0378754938481</v>
+        <v>860.0848884775264</v>
       </c>
       <c r="P38" t="n">
-        <v>1199.645019878853</v>
+        <v>1214.692032862531</v>
       </c>
       <c r="Q38" t="n">
-        <v>1267.448235401203</v>
+        <v>1282.495248384881</v>
       </c>
       <c r="R38" t="n">
-        <v>1387.850353231727</v>
+        <v>1364.669194558244</v>
       </c>
       <c r="S38" t="n">
-        <v>1432.756138929311</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T38" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.756138929312</v>
       </c>
       <c r="U38" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074268</v>
       </c>
       <c r="V38" t="n">
         <v>1342.06602303068</v>
@@ -7214,10 +7214,10 @@
         <v>1236.408734060549</v>
       </c>
       <c r="X38" t="n">
-        <v>1110.054342099452</v>
+        <v>1110.054342099453</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.026376423624</v>
+        <v>967.0263764236242</v>
       </c>
     </row>
     <row r="39">
@@ -7251,43 +7251,43 @@
         <v>28.65512277858623</v>
       </c>
       <c r="J39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="K39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="L39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="M39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="N39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="O39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="P39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="R39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="T39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="U39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680458</v>
+        <v>35.78111320680462</v>
       </c>
       <c r="W39" t="n">
         <v>28.65512277858623</v>
@@ -7330,43 +7330,43 @@
         <v>28.65512277858623</v>
       </c>
       <c r="J40" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="K40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659385</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146718</v>
+        <v>78.53404842146725</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556357</v>
+        <v>70.96092651556361</v>
       </c>
       <c r="W40" t="n">
         <v>28.65512277858623</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594852</v>
+        <v>827.5379026594851</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190567</v>
+        <v>705.6867520190566</v>
       </c>
       <c r="D41" t="n">
         <v>594.5324197122895</v>
@@ -7397,40 +7397,40 @@
         <v>455.8555334140287</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244047</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0263557085881</v>
+        <v>120.0263557085882</v>
       </c>
       <c r="H41" t="n">
         <v>28.65512277858623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79010407355122</v>
+        <v>78.79010407355118</v>
       </c>
       <c r="J41" t="n">
-        <v>345.0657804443181</v>
+        <v>345.065780444318</v>
       </c>
       <c r="K41" t="n">
-        <v>460.9346870853381</v>
+        <v>423.1928913516646</v>
       </c>
       <c r="L41" t="n">
-        <v>815.5418314703427</v>
+        <v>498.749205565084</v>
       </c>
       <c r="M41" t="n">
-        <v>815.5418314703427</v>
+        <v>587.1961268183991</v>
       </c>
       <c r="N41" t="n">
-        <v>1170.148975855347</v>
+        <v>677.7690704041706</v>
       </c>
       <c r="O41" t="n">
-        <v>1170.148975855347</v>
+        <v>1032.376214789175</v>
       </c>
       <c r="P41" t="n">
-        <v>1244.26707672772</v>
+        <v>1241.523116879623</v>
       </c>
       <c r="Q41" t="n">
-        <v>1244.26707672772</v>
+        <v>1309.326332401973</v>
       </c>
       <c r="R41" t="n">
         <v>1364.669194558244</v>
@@ -7439,10 +7439,10 @@
         <v>1409.574980255828</v>
       </c>
       <c r="T41" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.756138929312</v>
       </c>
       <c r="U41" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074268</v>
       </c>
       <c r="V41" t="n">
         <v>1342.06602303068</v>
@@ -7454,7 +7454,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236238</v>
+        <v>967.0263764236237</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="C42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="D42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="E42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
       <c r="F42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="G42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="H42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="J42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="K42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="L42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="M42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="N42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="O42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="P42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="W42" t="n">
         <v>28.65512277858623</v>
@@ -7533,7 +7533,7 @@
         <v>28.65512277858623</v>
       </c>
       <c r="Y42" t="n">
-        <v>35.78111320680464</v>
+        <v>28.65512277858623</v>
       </c>
     </row>
     <row r="43">
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.65512277858623</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="C43" t="n">
-        <v>28.65512277858623</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="D43" t="n">
-        <v>28.65512277858623</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="E43" t="n">
-        <v>28.65512277858623</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="F43" t="n">
-        <v>28.65512277858623</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="G43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="H43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="I43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="J43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="K43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="L43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="M43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="N43" t="n">
-        <v>104.727699552853</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="O43" t="n">
-        <v>120.6232601659387</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="P43" t="n">
-        <v>120.6232601659387</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.6232601659387</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="R43" t="n">
-        <v>120.6232601659387</v>
+        <v>79.55954737626941</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6232601659387</v>
+        <v>103.2845960674343</v>
       </c>
       <c r="T43" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146729</v>
+        <v>78.53404842146736</v>
       </c>
       <c r="V43" t="n">
-        <v>70.96092651556363</v>
+        <v>70.96092651556367</v>
       </c>
       <c r="W43" t="n">
         <v>28.65512277858623</v>
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594853</v>
+        <v>827.5379026594859</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190569</v>
+        <v>705.6867520190574</v>
       </c>
       <c r="D44" t="n">
-        <v>594.5324197122898</v>
+        <v>594.53241971229</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140289</v>
+        <v>455.8555334140291</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244047</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0263557085881</v>
+        <v>120.0263557085882</v>
       </c>
       <c r="H44" t="n">
         <v>28.65512277858623</v>
       </c>
       <c r="I44" t="n">
-        <v>70.83623429701433</v>
+        <v>78.79010407355118</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7062616474282</v>
+        <v>345.065780444318</v>
       </c>
       <c r="K44" t="n">
-        <v>524.3134060324328</v>
+        <v>423.1928913516646</v>
       </c>
       <c r="L44" t="n">
-        <v>878.9205504174374</v>
+        <v>498.749205565084</v>
       </c>
       <c r="M44" t="n">
-        <v>878.9205504174374</v>
+        <v>853.3563499500887</v>
       </c>
       <c r="N44" t="n">
-        <v>878.9205504174374</v>
+        <v>943.9292935358602</v>
       </c>
       <c r="O44" t="n">
-        <v>1233.527694802442</v>
+        <v>1029.616559830336</v>
       </c>
       <c r="P44" t="n">
-        <v>1309.326332401972</v>
+        <v>1241.523116879623</v>
       </c>
       <c r="Q44" t="n">
-        <v>1309.326332401972</v>
+        <v>1309.326332401973</v>
       </c>
       <c r="R44" t="n">
         <v>1364.669194558244</v>
@@ -7676,22 +7676,22 @@
         <v>1409.574980255828</v>
       </c>
       <c r="T44" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.756138929312</v>
       </c>
       <c r="U44" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074268</v>
       </c>
       <c r="V44" t="n">
         <v>1342.06602303068</v>
       </c>
       <c r="W44" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.40873406055</v>
       </c>
       <c r="X44" t="n">
-        <v>1110.054342099452</v>
+        <v>1110.054342099453</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236239</v>
+        <v>967.0263764236245</v>
       </c>
     </row>
     <row r="45">
@@ -7749,19 +7749,19 @@
         <v>28.65512277858623</v>
       </c>
       <c r="R45" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="S45" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="T45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="U45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680464</v>
+        <v>35.78111320680468</v>
       </c>
       <c r="W45" t="n">
         <v>28.65512277858623</v>
@@ -7780,67 +7780,67 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.65512277858623</v>
+        <v>54.4501660706259</v>
       </c>
       <c r="C46" t="n">
-        <v>28.65512277858623</v>
+        <v>54.4501660706259</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65512277858623</v>
+        <v>54.4501660706259</v>
       </c>
       <c r="E46" t="n">
-        <v>28.65512277858623</v>
+        <v>54.4501660706259</v>
       </c>
       <c r="F46" t="n">
-        <v>28.65512277858623</v>
+        <v>54.4501660706259</v>
       </c>
       <c r="G46" t="n">
-        <v>28.65512277858623</v>
+        <v>54.4501660706259</v>
       </c>
       <c r="H46" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="I46" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="J46" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="K46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="L46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="M46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="N46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="O46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="P46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="R46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="S46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="T46" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659388</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146729</v>
+        <v>78.53404842146736</v>
       </c>
       <c r="V46" t="n">
-        <v>70.96092651556363</v>
+        <v>70.96092651556367</v>
       </c>
       <c r="W46" t="n">
         <v>28.65512277858623</v>
@@ -7849,7 +7849,7 @@
         <v>28.65512277858623</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.65512277858623</v>
+        <v>54.4501660706259</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>135.4001387017735</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,22 +8696,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O11" t="n">
-        <v>158.0874584001396</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>169.7734840790314</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.19938811737015</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>56.76488551681562</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>10.82411795383655</v>
       </c>
       <c r="P14" t="n">
-        <v>13.19260006007655</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.152156149761</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.7916225242058</v>
+        <v>99.54015938850705</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9091,16 +9091,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>314.0894029198133</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>155.2999281386852</v>
+        <v>262.9916405508418</v>
       </c>
       <c r="N26" t="n">
-        <v>362.5200862270198</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,28 +9951,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>97.48910913098753</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K27" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L28" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O28" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216187</v>
+        <v>68.48263098630571</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>144.7715381416158</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>168.3207433304991</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>364.6675835325312</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>98.32727122188523</v>
+        <v>355.6292218720236</v>
       </c>
       <c r="O29" t="n">
         <v>367.4551137939856</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10276,16 +10276,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>168.3207433304991</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>318.7083004717069</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>367.4551137939856</v>
+        <v>110.7114997387206</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.152156149761</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,34 +10422,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>97.46850709971395</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>281.8695254258434</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>294.5058772707312</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4121601003822</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>26.40734851078925</v>
       </c>
       <c r="P35" t="n">
-        <v>283.3222661743756</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>58.88971413004942</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>279.2727610885433</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>224.4420768677845</v>
+        <v>266.7012129285182</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>283.3222661743758</v>
+        <v>311.9493684132876</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>27.1021050677689</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,31 +10896,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>112.4308326815199</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439824</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.36469730238186</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>38.12302599360939</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>281.8695254258435</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>266.7012129285182</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>136.3927285031064</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.98466604602677</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.79030879492463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>279.2727610885433</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>281.8695254258436</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>278.8153331585038</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>271.636240495484</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.697511845613874</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,16 +11382,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439824</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.6144048339939</v>
+        <v>168.6144048339938</v>
       </c>
       <c r="C11" t="n">
-        <v>151.1534549415208</v>
+        <v>78.74989343441655</v>
       </c>
       <c r="D11" t="n">
-        <v>68.16004328409196</v>
+        <v>140.5636047911962</v>
       </c>
       <c r="E11" t="n">
         <v>95.40737173567078</v>
       </c>
       <c r="F11" t="n">
-        <v>192.7566089122247</v>
+        <v>192.7566089122246</v>
       </c>
       <c r="G11" t="n">
-        <v>200.7559086311548</v>
+        <v>200.7559086311547</v>
       </c>
       <c r="H11" t="n">
-        <v>101.5028081628307</v>
+        <v>101.5028081628306</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.6328216406482</v>
+        <v>113.6328216406481</v>
       </c>
       <c r="W11" t="n">
-        <v>135.1215318879263</v>
+        <v>62.71797038082201</v>
       </c>
       <c r="X11" t="n">
-        <v>83.20810234187803</v>
+        <v>155.6116638489822</v>
       </c>
       <c r="Y11" t="n">
-        <v>172.1185018265669</v>
+        <v>172.1185018265668</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6144048339939</v>
+        <v>168.6144048339938</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415208</v>
+        <v>151.1534549415207</v>
       </c>
       <c r="D14" t="n">
         <v>140.5636047911962</v>
       </c>
       <c r="E14" t="n">
-        <v>167.8109332427751</v>
+        <v>95.40737173567078</v>
       </c>
       <c r="F14" t="n">
-        <v>120.3530474051204</v>
+        <v>192.7566089122246</v>
       </c>
       <c r="G14" t="n">
         <v>128.3523471240505</v>
       </c>
       <c r="H14" t="n">
-        <v>48.57477490109426</v>
+        <v>64.31078344884025</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399029</v>
+        <v>37.19202471399021</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406482</v>
+        <v>113.6328216406481</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1215318879263</v>
+        <v>135.1215318879262</v>
       </c>
       <c r="X14" t="n">
-        <v>91.8386068735249</v>
+        <v>155.6116638489822</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.1185018265669</v>
+        <v>99.71494031946258</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.588240815588506e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.57456336436735e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1256416.016352336</v>
+        <v>1256416.016352337</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1256416.016352336</v>
+        <v>1256416.016352337</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>225300.9931471856</v>
       </c>
       <c r="E2" t="n">
-        <v>193336.0599037126</v>
+        <v>193336.0599037125</v>
       </c>
       <c r="F2" t="n">
-        <v>193336.0599037126</v>
+        <v>193336.0599037125</v>
       </c>
       <c r="G2" t="n">
         <v>225786.4867126779</v>
       </c>
       <c r="H2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="I2" t="n">
         <v>225786.4867126779</v>
@@ -26344,13 +26344,13 @@
         <v>225786.4867126779</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126778</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126779</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278326.4646668792</v>
+        <v>278326.4646668791</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928506</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163718.1536871232</v>
+        <v>163718.1536871233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>106979.8107928506</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311802</v>
+        <v>18732.249433118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361802</v>
+        <v>70000.14188361811</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,22 +26439,22 @@
         <v>431842.1671902813</v>
       </c>
       <c r="J4" t="n">
+        <v>440899.9009590468</v>
+      </c>
+      <c r="K4" t="n">
         <v>440899.9009590467</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>440899.9009590468</v>
       </c>
-      <c r="L4" t="n">
-        <v>440899.9009590467</v>
-      </c>
       <c r="M4" t="n">
-        <v>436970.6596854209</v>
+        <v>436970.659685421</v>
       </c>
       <c r="N4" t="n">
-        <v>436970.6596854209</v>
+        <v>436970.659685421</v>
       </c>
       <c r="O4" t="n">
-        <v>436970.6596854209</v>
+        <v>436970.659685421</v>
       </c>
       <c r="P4" t="n">
         <v>436970.659685421</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275942.5667845456</v>
+        <v>-275946.9803624138</v>
       </c>
       <c r="C6" t="n">
-        <v>-275942.5667845457</v>
+        <v>-275946.9803624138</v>
       </c>
       <c r="D6" t="n">
-        <v>-275942.5667845457</v>
+        <v>-275946.9803624138</v>
       </c>
       <c r="E6" t="n">
-        <v>-476395.3988375894</v>
+        <v>-476690.4027176709</v>
       </c>
       <c r="F6" t="n">
-        <v>-198068.9341707103</v>
+        <v>-198363.9380507919</v>
       </c>
       <c r="G6" t="n">
         <v>-348998.1821503391</v>
@@ -26543,7 +26543,7 @@
         <v>-242018.3713574885</v>
       </c>
       <c r="J6" t="n">
-        <v>-425927.3976003018</v>
+        <v>-425927.3976003019</v>
       </c>
       <c r="K6" t="n">
         <v>-262209.2439131787</v>
@@ -26555,7 +26555,7 @@
         <v>-274578.61738003</v>
       </c>
       <c r="N6" t="n">
-        <v>-255846.367946912</v>
+        <v>-255846.3679469121</v>
       </c>
       <c r="O6" t="n">
         <v>-325846.50983053</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="F2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="G2" t="n">
         <v>347.84420032055</v>
@@ -26722,10 +26722,10 @@
         <v>244.6402526369834</v>
       </c>
       <c r="O2" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="P2" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="F3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="G3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="H3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="I3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="J3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="K3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="L3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="M3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="N3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="O3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="P3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="F4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="G4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="H4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="I4" t="n">
         <v>72.40356150710443</v>
@@ -26820,7 +26820,7 @@
         <v>430.5925962394319</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="N4" t="n">
         <v>358.1890347323279</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7247634910633</v>
+        <v>133.7247634910632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452258</v>
+        <v>87.50017735452269</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910633</v>
+        <v>133.7247634910632</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139753</v>
+        <v>23.4153117913975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452263</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552662</v>
+        <v>106.3137735552661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910633</v>
+        <v>133.7247634910632</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452258</v>
+        <v>87.50017735452269</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="C11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="D11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="E11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="F11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="G11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="H11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="I11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="J11" t="n">
-        <v>9.37139943984228</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="L11" t="n">
-        <v>168.3207433304991</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="M11" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>207.9287149551807</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="R11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="S11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="T11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="U11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="V11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="W11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="X11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
     </row>
     <row r="12">
@@ -28184,37 +28184,37 @@
         <v>137.114842254054</v>
       </c>
       <c r="H12" t="n">
-        <v>179.4724902640054</v>
+        <v>110.026926034905</v>
       </c>
       <c r="I12" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J12" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K12" t="n">
-        <v>100.9154559462058</v>
+        <v>44.15057042939024</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P12" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q12" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R12" t="n">
-        <v>131.4816003936965</v>
+        <v>200.9271646227967</v>
       </c>
       <c r="S12" t="n">
         <v>167.4356349622666</v>
@@ -28223,13 +28223,13 @@
         <v>199.2430083373</v>
       </c>
       <c r="U12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="V12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="W12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214.1194368294867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>214.1194368294867</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>214.1194368294867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>188.0173636552083</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="H13" t="n">
-        <v>214.1194368294867</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I13" t="n">
-        <v>149.6851312728186</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="J13" t="n">
         <v>113.4412867354731</v>
@@ -28275,19 +28275,19 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L13" t="n">
-        <v>106.3821278759461</v>
+        <v>145.8845045956454</v>
       </c>
       <c r="M13" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N13" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O13" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P13" t="n">
-        <v>114.5411443216187</v>
+        <v>186.944705828723</v>
       </c>
       <c r="Q13" t="n">
         <v>135.4516218226007</v>
@@ -28296,25 +28296,25 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="T13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="U13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="V13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="W13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="X13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="C14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="D14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="F14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="H14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="I14" t="n">
-        <v>193.998857389544</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="J14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="K14" t="n">
-        <v>214.1194368294867</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>180.0476231411211</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="P14" t="n">
-        <v>156.5808840189549</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="T14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="U14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="V14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="W14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="X14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I15" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J15" t="n">
         <v>105.2328625520064</v>
@@ -28433,25 +28433,25 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>11.25146313569875</v>
       </c>
       <c r="R15" t="n">
-        <v>192.4904235706146</v>
+        <v>200.9271646227967</v>
       </c>
       <c r="S15" t="n">
         <v>167.4356349622666</v>
@@ -28460,19 +28460,19 @@
         <v>199.2430083373</v>
       </c>
       <c r="U15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="V15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="W15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>214.1194368294867</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -28485,10 +28485,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="D16" t="n">
-        <v>214.1194368294867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28497,7 +28497,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>214.1194368294867</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H16" t="n">
         <v>160.5226664330617</v>
@@ -28506,52 +28506,52 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4412867354731</v>
+        <v>185.8448482425773</v>
       </c>
       <c r="K16" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
-        <v>106.3821278759461</v>
+        <v>137.3628037475274</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N16" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>111.3587261364775</v>
+        <v>183.7622876435818</v>
       </c>
       <c r="P16" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.8417264407709</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R16" t="n">
-        <v>214.1194368294867</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="T16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="U16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="V16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="W16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="X16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294868</v>
       </c>
     </row>
     <row r="17">
@@ -28579,22 +28579,22 @@
         <v>347.84420032055</v>
       </c>
       <c r="H17" t="n">
-        <v>347.84420032055</v>
+        <v>335.0977732376853</v>
       </c>
       <c r="I17" t="n">
-        <v>266.4024188966483</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J17" t="n">
-        <v>144.7715381416158</v>
+        <v>217.17509964872</v>
       </c>
       <c r="K17" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L17" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M17" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N17" t="n">
         <v>153.1524308331737</v>
@@ -28603,22 +28603,22 @@
         <v>158.0874584001396</v>
       </c>
       <c r="P17" t="n">
-        <v>169.7734840790314</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q17" t="n">
         <v>248.5557176568653</v>
       </c>
       <c r="R17" t="n">
-        <v>245.4701096707628</v>
+        <v>261.141933178157</v>
       </c>
       <c r="S17" t="n">
-        <v>271.6844346515783</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T17" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="U17" t="n">
-        <v>251.311461543477</v>
+        <v>320.7896266260518</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -28661,7 +28661,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I18" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J18" t="n">
         <v>105.2328625520064</v>
@@ -28670,19 +28670,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P18" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7916225242058</v>
@@ -28755,13 +28755,13 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N19" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O19" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P19" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q19" t="n">
         <v>135.4516218226007</v>
@@ -28819,19 +28819,19 @@
         <v>335.0977732376853</v>
       </c>
       <c r="I20" t="n">
-        <v>243.3850806217037</v>
+        <v>266.4024188966482</v>
       </c>
       <c r="J20" t="n">
         <v>144.7715381416158</v>
       </c>
       <c r="K20" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L20" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M20" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N20" t="n">
         <v>153.1524308331737</v>
@@ -28840,25 +28840,25 @@
         <v>158.0874584001396</v>
       </c>
       <c r="P20" t="n">
-        <v>242.1770455861357</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R20" t="n">
         <v>188.7383716710528</v>
       </c>
       <c r="S20" t="n">
-        <v>271.6844346515783</v>
+        <v>268.7590382270487</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2249408455859</v>
+        <v>293.6285023526901</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7150230505813</v>
+        <v>323.7150230505812</v>
       </c>
       <c r="V20" t="n">
-        <v>347.84420032055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>347.84420032055</v>
@@ -28898,7 +28898,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I21" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J21" t="n">
         <v>105.2328625520064</v>
@@ -28907,19 +28907,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7916225242058</v>
@@ -28992,13 +28992,13 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N22" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O22" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P22" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q22" t="n">
         <v>135.4516218226007</v>
@@ -29056,46 +29056,46 @@
         <v>335.0977732376853</v>
       </c>
       <c r="I23" t="n">
-        <v>263.477022472119</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J23" t="n">
-        <v>217.1750996487202</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K23" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L23" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7034896457896</v>
+        <v>227.7034896457897</v>
       </c>
       <c r="N23" t="n">
         <v>153.1524308331737</v>
       </c>
       <c r="O23" t="n">
-        <v>230.491019907244</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P23" t="n">
-        <v>169.7734840790314</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R23" t="n">
         <v>188.7383716710528</v>
       </c>
       <c r="S23" t="n">
-        <v>199.280873144474</v>
+        <v>248.6670963766338</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2249408455859</v>
+        <v>293.6285023526904</v>
       </c>
       <c r="U23" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505815</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>347.84420032055</v>
       </c>
       <c r="W23" t="n">
         <v>347.84420032055</v>
@@ -29135,7 +29135,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I24" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J24" t="n">
         <v>105.2328625520064</v>
@@ -29144,19 +29144,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P24" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q24" t="n">
         <v>110.7916225242058</v>
@@ -29229,13 +29229,13 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N25" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O25" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P25" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q25" t="n">
         <v>135.4516218226007</v>
@@ -29299,16 +29299,16 @@
         <v>221.2249408455859</v>
       </c>
       <c r="K26" t="n">
-        <v>221.2249408455859</v>
+        <v>181.3524735965226</v>
       </c>
       <c r="L26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N26" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>221.2249408455859</v>
@@ -29372,34 +29372,34 @@
         <v>110.026926034905</v>
       </c>
       <c r="I27" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J27" t="n">
-        <v>7.743753421018877</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439824</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>179.1778410351043</v>
+        <v>179.1778410351042</v>
       </c>
       <c r="S27" t="n">
         <v>167.4356349622666</v>
@@ -29439,13 +29439,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>221.2249408455859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>221.2249408455859</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H28" t="n">
         <v>160.5226664330617</v>
@@ -29454,34 +29454,34 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J28" t="n">
-        <v>79.80504541274973</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.10866344484918</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R28" t="n">
-        <v>215.0695369228765</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S28" t="n">
-        <v>221.2249408455859</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T28" t="n">
         <v>221.2249408455859</v>
@@ -29533,19 +29533,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M29" t="n">
+        <v>3.684996608832848</v>
+      </c>
+      <c r="N29" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="N29" t="n">
-        <v>65.10062908319051</v>
       </c>
       <c r="O29" t="n">
         <v>221.2249408455859</v>
@@ -29554,7 +29554,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.2249408455859</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R29" t="n">
         <v>221.2249408455859</v>
@@ -29603,40 +29603,40 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.114842254054</v>
+        <v>184.8110828954618</v>
       </c>
       <c r="H30" t="n">
         <v>110.026926034905</v>
       </c>
       <c r="I30" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J30" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439824</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018489</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734514</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R30" t="n">
-        <v>179.1778410351042</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S30" t="n">
         <v>167.4356349622666</v>
@@ -29679,16 +29679,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>159.3781465738152</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>221.2249408455859</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H31" t="n">
         <v>160.5226664330617</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6851312728186</v>
+        <v>183.4316633502555</v>
       </c>
       <c r="J31" t="n">
         <v>221.2249408455859</v>
@@ -29700,16 +29700,16 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M31" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>135.4516218226007</v>
@@ -29773,10 +29773,10 @@
         <v>221.2249408455859</v>
       </c>
       <c r="K32" t="n">
-        <v>221.2249408455859</v>
+        <v>106.3497793777146</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>181.2521250194806</v>
       </c>
       <c r="M32" t="n">
         <v>221.2249408455859</v>
@@ -29791,7 +29791,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R32" t="n">
         <v>221.2249408455859</v>
@@ -29846,37 +29846,37 @@
         <v>110.026926034905</v>
       </c>
       <c r="I33" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755811</v>
       </c>
       <c r="J33" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439824</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>71.86717946018489</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734514</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.4878631656136</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>131.4816003936965</v>
+        <v>85.9599305823757</v>
       </c>
       <c r="S33" t="n">
-        <v>167.4356349622666</v>
+        <v>215.1318756036744</v>
       </c>
       <c r="T33" t="n">
         <v>199.2430083373</v>
@@ -29928,31 +29928,31 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J34" t="n">
-        <v>202.8343952227608</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O34" t="n">
-        <v>13.8902190367636</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q34" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="R34" t="n">
-        <v>168.6732614754589</v>
+        <v>192.7234115849952</v>
       </c>
       <c r="S34" t="n">
         <v>220.675556989342</v>
@@ -30016,10 +30016,10 @@
         <v>244.6402526369834</v>
       </c>
       <c r="M35" t="n">
+        <v>218.9830856002818</v>
+      </c>
+      <c r="N35" t="n">
         <v>244.6402526369834</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>244.6402526369834</v>
@@ -30065,7 +30065,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>179.9064691178293</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30083,31 +30083,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I36" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J36" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K36" t="n">
-        <v>42.0257418161564</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439824</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018489</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R36" t="n">
         <v>131.4816003936965</v>
@@ -30119,7 +30119,7 @@
         <v>199.2430083373</v>
       </c>
       <c r="U36" t="n">
-        <v>233.1243078085701</v>
+        <v>225.9263376790566</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -30159,34 +30159,34 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H37" t="n">
-        <v>244.6402526369834</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I37" t="n">
         <v>149.6851312728186</v>
       </c>
       <c r="J37" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274975</v>
       </c>
       <c r="K37" t="n">
-        <v>115.519173454485</v>
+        <v>199.6367596584068</v>
       </c>
       <c r="L37" t="n">
         <v>106.3821278759461</v>
       </c>
       <c r="M37" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O37" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.4516218226007</v>
+        <v>70.1086634448492</v>
       </c>
       <c r="R37" t="n">
         <v>168.6732614754589</v>
@@ -30250,19 +30250,19 @@
         <v>244.6402526369834</v>
       </c>
       <c r="L38" t="n">
-        <v>168.3207433304991</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M38" t="n">
-        <v>155.2999281386852</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N38" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="O38" t="n">
-        <v>158.0874584001396</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="P38" t="n">
-        <v>244.6402526369834</v>
+        <v>216.0131503980718</v>
       </c>
       <c r="Q38" t="n">
         <v>244.6402526369834</v>
@@ -30274,7 +30274,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2249408455859</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U38" t="n">
         <v>244.6402526369834</v>
@@ -30320,31 +30320,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I39" t="n">
-        <v>81.52339584755809</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J39" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018489</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P39" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>131.4816003936965</v>
@@ -30359,7 +30359,7 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V39" t="n">
-        <v>239.9985572789388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>244.6402526369834</v>
@@ -30402,10 +30402,10 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J40" t="n">
-        <v>113.4412867354731</v>
+        <v>206.3383952075462</v>
       </c>
       <c r="K40" t="n">
-        <v>199.6367596584067</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
         <v>106.3821278759461</v>
@@ -30414,16 +30414,16 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N40" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O40" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P40" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.0869245202188</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R40" t="n">
         <v>168.6732614754589</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="C41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="D41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="E41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="F41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="G41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="H41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="I41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="K41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="L41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="M41" t="n">
-        <v>155.2999281386852</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="N41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="O41" t="n">
-        <v>158.0874584001396</v>
+        <v>135.4763118697222</v>
       </c>
       <c r="P41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.152156149761</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="R41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="S41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="T41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="U41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>152.2671825228975</v>
       </c>
       <c r="G42" t="n">
         <v>137.114842254054</v>
@@ -30557,31 +30557,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I42" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J42" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.7916225242058</v>
+        <v>15.80695647817902</v>
       </c>
       <c r="R42" t="n">
         <v>131.4816003936965</v>
@@ -30599,13 +30599,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>212.8806659068179</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>231.2505908866678</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30630,7 +30630,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>244.6402526369834</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H43" t="n">
         <v>160.5226664330617</v>
@@ -30651,34 +30651,34 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O43" t="n">
-        <v>127.4148479678773</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P43" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.66131302767602</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R43" t="n">
         <v>168.6732614754589</v>
       </c>
       <c r="S43" t="n">
-        <v>220.675556989342</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1264505172819</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W43" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="C44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="D44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="E44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="F44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="G44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="H44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="I44" t="n">
-        <v>236.6060407414916</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="L44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="M44" t="n">
-        <v>155.2999281386852</v>
+        <v>234.6736297125094</v>
       </c>
       <c r="N44" t="n">
-        <v>153.1524308331737</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="O44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369834</v>
+        <v>62.02180323006135</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.152156149761</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="R44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="S44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="T44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="U44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="45">
@@ -30794,40 +30794,40 @@
         <v>110.026926034905</v>
       </c>
       <c r="I45" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J45" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918125</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>84.19302733439828</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018489</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P45" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R45" t="n">
-        <v>131.4816003936965</v>
+        <v>138.6795705232101</v>
       </c>
       <c r="S45" t="n">
         <v>167.4356349622666</v>
       </c>
       <c r="T45" t="n">
-        <v>206.4409784668136</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U45" t="n">
         <v>225.9263376790566</v>
@@ -30836,7 +30836,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30870,7 +30870,7 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5226664330617</v>
+        <v>227.3641756202464</v>
       </c>
       <c r="I46" t="n">
         <v>149.6851312728186</v>
@@ -30879,22 +30879,22 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K46" t="n">
-        <v>199.6367596584068</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
         <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O46" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P46" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q46" t="n">
         <v>135.4516218226007</v>
@@ -30909,19 +30909,19 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="V46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="W46" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>244.6402526369833</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J11" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M11" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P11" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T11" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H12" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H13" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K13" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L13" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P13" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R13" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S13" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J14" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M14" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P14" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T14" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H15" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H16" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J16" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K16" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L16" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P16" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R16" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S16" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J17" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M17" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P17" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T17" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H18" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H19" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K19" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L19" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P19" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R19" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S19" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J20" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M20" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P20" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T20" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H21" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H22" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K22" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L22" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P22" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R22" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S22" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J23" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M23" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P23" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T23" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H24" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R24" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H25" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J25" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K25" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L25" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P25" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R25" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S25" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I26" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J26" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M26" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P26" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T26" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H27" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R27" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H28" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J28" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K28" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L28" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P28" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R28" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S28" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J29" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M29" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P29" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T29" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H30" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R30" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H31" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J31" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K31" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L31" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P31" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R31" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S31" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I32" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J32" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M32" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P32" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T32" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H33" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R33" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H34" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J34" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K34" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L34" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P34" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R34" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S34" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J35" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M35" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P35" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T35" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H36" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R36" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H37" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J37" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K37" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L37" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P37" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R37" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S37" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I38" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J38" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M38" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P38" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T38" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H39" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R39" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H40" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K40" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L40" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P40" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R40" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S40" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I41" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M41" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P41" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T41" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H42" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R42" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H43" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K43" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L43" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P43" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R43" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S43" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935319</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081888</v>
+        <v>4.377028878081885</v>
       </c>
       <c r="I44" t="n">
-        <v>16.47703218086192</v>
+        <v>16.4770321808619</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178165</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948814</v>
+        <v>67.4456716394881</v>
       </c>
       <c r="M44" t="n">
-        <v>75.0463050885875</v>
+        <v>75.04630508858743</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341725</v>
+        <v>76.26063276341719</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154719</v>
+        <v>72.01075302154713</v>
       </c>
       <c r="P44" t="n">
-        <v>61.4595116762381</v>
+        <v>61.45951167623805</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468842</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771368</v>
       </c>
       <c r="T44" t="n">
-        <v>1.870908718545438</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948254</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566102</v>
       </c>
       <c r="H45" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856981</v>
+        <v>7.873237003856975</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069297</v>
+        <v>49.65154113069293</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762009</v>
+        <v>57.94100658762004</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314842</v>
+        <v>59.47453262314837</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709931</v>
+        <v>54.40757805709926</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763379</v>
+        <v>43.66687804763375</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R45" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571244</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216002</v>
+        <v>0.9217203575215995</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1917133621488407</v>
+        <v>0.1917133621488405</v>
       </c>
       <c r="H46" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439684</v>
+        <v>5.76534365443968</v>
       </c>
       <c r="J46" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K46" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420165</v>
       </c>
       <c r="L46" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529217</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120416</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501305</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P46" t="n">
-        <v>23.18685972752887</v>
+        <v>23.18685972752885</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R46" t="n">
-        <v>8.6201299017106</v>
+        <v>8.620129901710593</v>
       </c>
       <c r="S46" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995919</v>
+        <v>0.8191389109995912</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.12057943994272</v>
+        <v>20.12057943994279</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39545783628786</v>
+        <v>48.3954578362879</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>45.79869349898766</v>
       </c>
       <c r="M11" t="n">
-        <v>58.81950869080148</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>60.96700599631305</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.84125655504107</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.34595275045531</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.96728067972569</v>
+        <v>37.96728067972574</v>
       </c>
       <c r="R11" t="n">
-        <v>45.58045327580411</v>
+        <v>25.38106515843402</v>
       </c>
       <c r="S11" t="n">
-        <v>14.83856368501275</v>
+        <v>14.83856368501283</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>69.44556422910044</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>69.44556422910019</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.28745664754942</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>46.87261573085888</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.68547418291755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.21809765889837</v>
+        <v>46.32017083317688</v>
       </c>
       <c r="H13" t="n">
-        <v>53.59677039642501</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>64.43430555666819</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>39.50237671969933</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.12057943994279</v>
       </c>
       <c r="J14" t="n">
-        <v>69.3478986878709</v>
+        <v>69.34789868787095</v>
       </c>
       <c r="K14" t="n">
-        <v>48.39545783628786</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.79869349898762</v>
+        <v>45.79869349898766</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>26.89519230794739</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>56.03197842934718</v>
+        <v>66.85609638318375</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.34595275045531</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.38106515843396</v>
+        <v>25.38106515843402</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501275</v>
+        <v>14.83856368501283</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.00882317691809</v>
+        <v>69.44556422910019</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35768,7 +35768,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.436741052182356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -35781,10 +35781,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.87261573085897</v>
       </c>
       <c r="D16" t="n">
-        <v>65.50396381127436</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>46.3201708331768</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>30.98067587158124</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,16 +35817,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.39010461817024</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.44617535402783</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,13 +35875,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.74642708286478</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="R17" t="n">
-        <v>56.73173799971006</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="S17" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>69.47816508257475</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>49.38622323215969</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.40356150710429</v>
+        <v>69.47816508257475</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="U20" t="n">
-        <v>72.40356150710429</v>
+        <v>72.4035615071042</v>
       </c>
       <c r="V20" t="n">
-        <v>20.09194185041514</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>69.47816508257496</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.40356150710443</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36370,28 +36370,28 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>49.38622323215983</v>
+      </c>
+      <c r="T23" t="n">
         <v>72.40356150710443</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>72.40356150710443</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>20.09194185041514</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604191</v>
+        <v>27.22608345604193</v>
       </c>
       <c r="J26" t="n">
-        <v>76.45340270397008</v>
+        <v>245.5500178760439</v>
       </c>
       <c r="K26" t="n">
-        <v>55.50096185238705</v>
+        <v>339.7739071744884</v>
       </c>
       <c r="L26" t="n">
-        <v>366.9936004349001</v>
+        <v>52.90419751508679</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>328.9166532577424</v>
       </c>
       <c r="N26" t="n">
-        <v>430.5925962394319</v>
+        <v>284.1944935788105</v>
       </c>
       <c r="O26" t="n">
-        <v>63.13748244544637</v>
+        <v>63.13748244544634</v>
       </c>
       <c r="P26" t="n">
-        <v>373.2501649380371</v>
+        <v>51.45145676655444</v>
       </c>
       <c r="Q26" t="n">
         <v>257.3877753557296</v>
       </c>
       <c r="R26" t="n">
-        <v>32.48656917453314</v>
+        <v>32.48656917453316</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111194</v>
+        <v>21.94406770111196</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.6962406414078</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36735,13 +36735,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>74.79097819901673</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>53.42567484927599</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.004115158318818146</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36768,16 +36768,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>175.1664275102729</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.39627544741759</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5493838562439008</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604194</v>
+        <v>27.2260834560419</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>245.5500178760438</v>
       </c>
       <c r="K29" t="n">
-        <v>55.50096185238708</v>
+        <v>55.50096185238701</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>52.90419751508676</v>
       </c>
       <c r="M29" t="n">
-        <v>430.5925962394319</v>
+        <v>297.89860196298</v>
       </c>
       <c r="N29" t="n">
-        <v>10.27546947190207</v>
+        <v>423.7017318844358</v>
       </c>
       <c r="O29" t="n">
         <v>430.5925962394319</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2501649380371</v>
+        <v>51.45145676655441</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.3877753557296</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>98.20298904751562</v>
+        <v>98.20298904751557</v>
       </c>
       <c r="S29" t="n">
-        <v>21.94406770111197</v>
+        <v>21.94406770111193</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36975,19 +36975,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>13.957098550884</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.42567484927601</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.74653207743687</v>
       </c>
       <c r="J31" t="n">
-        <v>107.7836541101129</v>
+        <v>141.4198954328361</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>27.22608345604191</v>
+        <v>27.2260834560419</v>
       </c>
       <c r="J32" t="n">
-        <v>245.5500178760439</v>
+        <v>245.5500178760438</v>
       </c>
       <c r="K32" t="n">
-        <v>55.50096185238705</v>
+        <v>264.7712129556804</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M32" t="n">
-        <v>65.92501270690067</v>
+        <v>65.9250127069006</v>
       </c>
       <c r="N32" t="n">
-        <v>386.7808104841192</v>
+        <v>68.07251001241218</v>
       </c>
       <c r="O32" t="n">
-        <v>430.5925962394319</v>
+        <v>173.8489821841669</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2501649380371</v>
+        <v>51.45145676655441</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>257.3877753557295</v>
       </c>
       <c r="R32" t="n">
-        <v>98.20298904751559</v>
+        <v>98.20298904751557</v>
       </c>
       <c r="S32" t="n">
-        <v>21.94406770111194</v>
+        <v>21.94406770111193</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37166,13 +37166,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>47.6962406414078</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>89.39310848728775</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.77331902298526</v>
+        <v>151.1162774007367</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>24.0501501095363</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.64139524743944</v>
+        <v>50.6413952474394</v>
       </c>
       <c r="J35" t="n">
-        <v>99.86871449536761</v>
+        <v>99.86871449536756</v>
       </c>
       <c r="K35" t="n">
-        <v>78.91627364378458</v>
+        <v>78.91627364378451</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648433</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="M35" t="n">
-        <v>89.3403244982982</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="N35" t="n">
-        <v>107.2597292672085</v>
+        <v>91.48782180380968</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684389</v>
+        <v>112.9601427476331</v>
       </c>
       <c r="P35" t="n">
-        <v>358.1890347323276</v>
+        <v>74.86676855795191</v>
       </c>
       <c r="Q35" t="n">
-        <v>280.8030871471271</v>
+        <v>68.48809648722235</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6183008389131</v>
+        <v>55.90188096593063</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250947</v>
+        <v>45.35937949250943</v>
       </c>
       <c r="T35" t="n">
-        <v>23.41531179139751</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37361,7 +37361,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>7.197970129513519</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -37415,7 +37415,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>7.197970129513493</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>84.11758620392173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.779522268151288</v>
+        <v>92.89710847207309</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.64139524743944</v>
+        <v>50.6413952474394</v>
       </c>
       <c r="J38" t="n">
-        <v>99.86871449536761</v>
+        <v>99.86871449536756</v>
       </c>
       <c r="K38" t="n">
+        <v>78.91627364378451</v>
+      </c>
+      <c r="L38" t="n">
+        <v>76.31950930648426</v>
+      </c>
+      <c r="M38" t="n">
+        <v>89.3403244982981</v>
+      </c>
+      <c r="N38" t="n">
         <v>358.1890347323279</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>315.9298986715943</v>
-      </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>86.55279423684381</v>
       </c>
       <c r="P38" t="n">
         <v>358.1890347323279</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.48809648722241</v>
+        <v>68.48809648722235</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6183008389131</v>
+        <v>83.00398603369953</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250947</v>
+        <v>45.35937949250943</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.197970129513522</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37655,7 +37655,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>7.197970129513489</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>92.8971084720731</v>
       </c>
       <c r="K40" t="n">
-        <v>92.89710847207299</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.64139524743938</v>
+        <v>50.64139524743934</v>
       </c>
       <c r="J41" t="n">
         <v>268.9653296674413</v>
       </c>
       <c r="K41" t="n">
-        <v>117.0392996373939</v>
+        <v>78.91627364378445</v>
       </c>
       <c r="L41" t="n">
+        <v>76.31950930648421</v>
+      </c>
+      <c r="M41" t="n">
+        <v>89.34032449829805</v>
+      </c>
+      <c r="N41" t="n">
+        <v>91.48782180380962</v>
+      </c>
+      <c r="O41" t="n">
         <v>358.1890347323279</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>358.1890347323279</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>74.86676855795193</v>
+        <v>211.2594970610582</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>68.48809648722229</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6183008389131</v>
+        <v>55.90188096593057</v>
       </c>
       <c r="S41" t="n">
-        <v>45.35937949250941</v>
+        <v>45.35937949250938</v>
       </c>
       <c r="T41" t="n">
-        <v>23.41531179139746</v>
+        <v>23.41531179139743</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37844,7 +37844,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>7.197970129513579</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -37901,7 +37901,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.197970129513547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>51.41861070473048</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>76.84098664067346</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>16.0561218313997</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>23.96469564764134</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.51380211970145</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.60718335194758</v>
+        <v>50.64139524743934</v>
       </c>
       <c r="J44" t="n">
-        <v>99.86871449536756</v>
+        <v>268.9653296674413</v>
       </c>
       <c r="K44" t="n">
+        <v>78.91627364378445</v>
+      </c>
+      <c r="L44" t="n">
+        <v>76.31950930648421</v>
+      </c>
+      <c r="M44" t="n">
         <v>358.1890347323279</v>
       </c>
-      <c r="L44" t="n">
-        <v>358.1890347323279</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>91.48782180380962</v>
       </c>
       <c r="O44" t="n">
-        <v>358.1890347323279</v>
+        <v>86.55279423684375</v>
       </c>
       <c r="P44" t="n">
-        <v>76.5642804035658</v>
+        <v>214.0470273225125</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>68.48809648722229</v>
       </c>
       <c r="R44" t="n">
-        <v>55.90188096593062</v>
+        <v>55.90188096593057</v>
       </c>
       <c r="S44" t="n">
-        <v>45.35937949250941</v>
+        <v>45.35937949250938</v>
       </c>
       <c r="T44" t="n">
-        <v>23.41531179139746</v>
+        <v>23.41531179139743</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38117,13 +38117,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>7.197970129513579</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>7.197970129513547</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>66.84150918718473</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>92.89710847207316</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>26.05559928488856</v>
       </c>
     </row>
   </sheetData>
